--- a/Scripts/TutorialCutscene_Excel.xlsx
+++ b/Scripts/TutorialCutscene_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USSER\Desktop\UE5_Project\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC137323-E6B9-4CA8-90DB-5ED859B0DA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B697BA0-39A4-4B3F-9F32-1058DFE121F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,154 +25,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
-  <si>
-    <t>후두부에서 뜨거운 액체가 흐르는게 느껴진다. 출혈이 있는듯하다.</t>
-  </si>
-  <si>
-    <t>임무 중 피격을 당한 듯하다. 상황 파악이 안된다.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+  <si>
+    <t>빨리 이곳을 벗어나서 치료하지 않으면…</t>
+  </si>
+  <si>
+    <t>통신 채널 너머, 미세한 타자 소리와 인기척이 들려온다.</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>귀하는 누구지? 신원을 밝혀라.</t>
+  </si>
+  <si>
+    <t>세령</t>
+  </si>
+  <si>
+    <t>세령이란 여성은 대화를 이어가며 무언가 입력하고 있다.</t>
+  </si>
+  <si>
+    <t>그럼 다른 복귀 방법은?</t>
+  </si>
+  <si>
+    <t>기존의 파견되었던 요원들이 설치해둔 장비들을 이용하는 방법이 남아있다.</t>
+  </si>
+  <si>
+    <t>그 말은…?</t>
+  </si>
+  <si>
+    <t>목표는 그곳에 있는 고대 마법에 대한 데이터를 기록이다.</t>
+  </si>
+  <si>
+    <t>단, 창세기 최강의 마검사 에이드린과의 교전은 피하도록.</t>
+  </si>
+  <si>
+    <t>데이터를 수집하는 방법은?</t>
+  </si>
+  <si>
+    <t>느리지만 가장 안전한 방법은 마법을 관찰하는 방법이다. 빠르게 수집하려면…</t>
+  </si>
+  <si>
+    <t>나도 꾸물대다간 저렇게 되겠군…</t>
+  </si>
+  <si>
+    <t>팔찌에 빨간색 불빛이 반짝인다.</t>
+  </si>
+  <si>
+    <t>경고! 경고! 시간왜곡이 한계치의 도달! 경고! 경고!</t>
+  </si>
+  <si>
+    <t>RowName</t>
+  </si>
+  <si>
+    <t>Cname</t>
+  </si>
+  <si>
+    <t>Ctext</t>
+  </si>
+  <si>
+    <t>CurIdx</t>
+  </si>
+  <si>
+    <t>FocusCharacter</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>후두부에서 뜨거운 액체가 흐르는게 느껴진다.\n출혈이 있는듯하다.</t>
+  </si>
+  <si>
+    <t>임무 중 피격을 당한 듯하다.\n상황 파악이 안된다.</t>
+  </si>
+  <si>
+    <t>데이터 기록은… 손상되었군…\n이탈해야 해. 치료가 급선무다.</t>
+  </si>
+  <si>
+    <t>걸음을 옮기려는 찰나, 허리춤의 단말기에서\n날카로운 기계음이 고막을 찌른다.</t>
+  </si>
+  <si>
+    <t>통신 단말기</t>
+  </si>
+  <si>
+    <t>(치이익— 삐-! 통신 연결음)</t>
+  </si>
+  <si>
+    <t>통신…? 통신 연결 확인.\n여기는 카엘리스, 응답 바란다.</t>
+  </si>
+  <si>
+    <t>…카엘리스?\n채널이 어째서 이쪽으로…</t>
+  </si>
+  <si>
+    <t>누구지? 뇌리에 스치는 기시감…\n음성 데이터가 낯설지 않다.</t>
+  </si>
+  <si>
+    <t>...카엘리스? 그게 무슨 소리지?\n...아. 통신 오류인가. \n현 상황을 보고해라. 작전 구역 이탈인가?</t>
+  </si>
+  <si>
+    <t>통신기 단말에서는 '주파수 감식결과: 아군'이라 나온다.\n작전 보조 오퍼레이터인 모양이다.</t>
+  </si>
+  <si>
+    <t>작전 중 부상을 입어서 기록 데이터가 손상되었고…\n나도 기억이 잘 나질 않는다…</t>
+  </si>
+  <si>
+    <t>현재 상황으로는 작전 진행이 어렵다.\n복귀를 요청한다.</t>
+  </si>
+  <si>
+    <t>통신화면 너머의 여성은 타자를 치다가\n나의 말을 듣고 멈칫하더니 다시 타자를 친다.</t>
+  </si>
+  <si>
+    <t>기억 상실인가… 상황이 좋지 않군.\n나는 세령. 카엘리스, 현재 네가 있는 곳은 차원공간이다.</t>
+  </si>
+  <si>
+    <t>차원공간…\n시간여행의 과정 중 경유하는 공간…이 맞나?</t>
+  </si>
+  <si>
+    <t>그건 기억하는군.\n아무래도 차원에 균열을 내서 만들어낸 공간의 영향으로 \n부상에 의해 기억을 잃은 듯하다.</t>
+  </si>
+  <si>
+    <t>본부쪽에서 귀환시키는 방법은 현재 불가능하다.\n아무래도 부상을 입으면서 장비에 이상이 있는 듯하다.</t>
+  </si>
+  <si>
+    <t>사실상 임무를 완수하는 것 밖에는 답이 없군.\n작전 정보를 재전송해라.</t>
+  </si>
+  <si>
+    <t>알겠다. 현재 위치한 차원공간을 벗어나면 \n목표시대인 창세기 시대에 도착하게 된다.</t>
+  </si>
+  <si>
+    <t>고대 마법을 사용하는 자와의 교전이다.\n다양하고 강력한 마법일 수록 빠르게 수집되지.</t>
+  </si>
+  <si>
+    <t>효율적이군. 확인했다.\n...잠깐, 전방에 적대 반응.</t>
+  </si>
+  <si>
+    <t>통로 너머에 나와 복장이 비슷한 괴생명체가 배회하고 있다.\n아직 나를 못 본 모양이다.</t>
+  </si>
+  <si>
+    <t>전방에 존재하는 존재는 시간망령이다.\n차원공간에 오래 머물러 괴물로 변해버린 인간의 말로지.</t>
+  </si>
+  <si>
+    <t>시스템 단말기</t>
+  </si>
+  <si>
+    <t>시간이 없다! 더 오래 있다간 너도 시간망령이 될 거다.\n탈출루트를 마킹했다. 신속하게 이동해라, 카엘리스!</t>
   </si>
   <si>
     <t>카엘리스</t>
-  </si>
-  <si>
-    <t>빨리 이곳을 벗어나서 치료하지 않으면…</t>
-  </si>
-  <si>
-    <t>걸음을 옮기려는 찰나, 허리춤의 단말기에서 날카로운 기계음이 고막을 찌른다.</t>
-  </si>
-  <si>
-    <t>통신…? 통신 연결 확인. 여기는 카엘리스, 응답 바란다.</t>
-  </si>
-  <si>
-    <t>통신 채널 너머, 미세한 타자 소리와 인기척이 들려온다.</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>…카엘리스? 채널이 어째서 이쪽으로…</t>
-  </si>
-  <si>
-    <t>누구지? 뇌리에 스치는 기시감... 음성 데이터가 낯설지 않다.</t>
-  </si>
-  <si>
-    <t>귀하는 누구지? 신원을 밝혀라.</t>
-  </si>
-  <si>
-    <t>통신기 단말에서는 '주파수 감식결과: 아군'이라 나온다. 작전 보조 오퍼레이터인 모양이다.</t>
-  </si>
-  <si>
-    <t>현재 상황으로는 작전 진행이 어렵다. 복귀를 요청한다.</t>
-  </si>
-  <si>
-    <t>통신화면 너머의 여성은 타자를 치다가 나의 말을 듣고 멈칫하더니 다시 타자를 친다.</t>
-  </si>
-  <si>
-    <t>세령</t>
-  </si>
-  <si>
-    <t>기억 상실인가… 상황이 좋지 않군. 나는 세령. 카엘리스, 현재 네가 있는 곳은 차원공간이다.</t>
-  </si>
-  <si>
-    <t>그건 기억하는군. 아무래도 차원에 균열을 내서 만들어낸 공간의 영향으로 부상에 의해 기억을 잃은 듯하다.</t>
-  </si>
-  <si>
-    <t>세령이란 여성은 대화를 이어가며 무언가 입력하고 있다.</t>
-  </si>
-  <si>
-    <t>본부쪽에서 귀환시키는 방법은 현재 불가능하다. 아무래도 부상을 입으면서 장비에 이상이 있는 듯하다.</t>
-  </si>
-  <si>
-    <t>그럼 다른 복귀 방법은?</t>
-  </si>
-  <si>
-    <t>기존의 파견되었던 요원들이 설치해둔 장비들을 이용하는 방법이 남아있다.</t>
-  </si>
-  <si>
-    <t>그 말은…?</t>
-  </si>
-  <si>
-    <t>사실상 임무를 완수하는 것 밖에는 답이 없군. 작전 정보를 재전송해라.</t>
-  </si>
-  <si>
-    <t>알겠다. 현재 위치한 차원공간을 벗어나면 목표시대인 창세기 시대에 도착하게 된다.</t>
-  </si>
-  <si>
-    <t>목표는 그곳에 있는 고대 마법에 대한 데이터를 기록이다.</t>
-  </si>
-  <si>
-    <t>단, 창세기 최강의 마검사 에이드린과의 교전은 피하도록.</t>
-  </si>
-  <si>
-    <t>데이터를 수집하는 방법은?</t>
-  </si>
-  <si>
-    <t>느리지만 가장 안전한 방법은 마법을 관찰하는 방법이다. 빠르게 수집하려면…</t>
-  </si>
-  <si>
-    <t>고대 마법을 사용하는 자와의 교전이다. 다양하고 강력한 마법일 수록 빠르게 수집되지.</t>
-  </si>
-  <si>
-    <t>효율적이군. 확인했다. ...잠깐, 전방에 적대 반응.</t>
-  </si>
-  <si>
-    <t>통로 너머에 나와 복장이 비슷한 괴생명체가 배회하고 있다. 아직 나를 못 본 모양이다.</t>
-  </si>
-  <si>
-    <t>전방에 존재하는 존재는 시간망령이다. 차원공간에 오래 머물러 괴물로 변해버린 인간의 말로지.</t>
-  </si>
-  <si>
-    <t>나도 꾸물대다간 저렇게 되겠군…</t>
-  </si>
-  <si>
-    <t>팔찌에 빨간색 불빛이 반짝인다.</t>
-  </si>
-  <si>
-    <t>경고! 경고! 시간왜곡이 한계치의 도달! 경고! 경고!</t>
-  </si>
-  <si>
-    <t>시간이 없다! 더 오래 있다간 너도 시간망령이 될 거다. 탈출루트를 마킹했다. 신속하게 이동해라, 카엘리스!</t>
-  </si>
-  <si>
-    <t>RowName</t>
-  </si>
-  <si>
-    <t>Cname</t>
-  </si>
-  <si>
-    <t>Ctext</t>
-  </si>
-  <si>
-    <t>CurIdx</t>
-  </si>
-  <si>
-    <t>FocusCharacter</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>데이터 기록은… 손상되었군… 이탈해야 해. 치료가 급선무다.</t>
-  </si>
-  <si>
-    <t>(치이익— 삐-!)</t>
-  </si>
-  <si>
-    <t>...카엘리스? 그게 무슨 소리지? ...아. 통신 오류인가. 현 상황을 보고해라. 작전 구역 이탈인가?</t>
-  </si>
-  <si>
-    <t>작전 중 부상을 입어서 기록 데이터가 손상되었고… 나도 기억이 잘 나질 않는다…</t>
-  </si>
-  <si>
-    <t>차원공간… 시간여행의 과정 중 경유하는 공간… 이 맞나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,16 +194,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,13 +239,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,43 +552,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="95.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -540,13 +604,18 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -557,16 +626,20 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -577,16 +650,22 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -597,13 +676,20 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -614,13 +700,20 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -631,16 +724,22 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -651,13 +750,20 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -668,16 +774,20 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -688,13 +798,20 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -705,16 +822,20 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -725,16 +846,22 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -745,13 +872,20 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -762,16 +896,20 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -782,16 +920,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
@@ -802,13 +946,20 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
@@ -819,16 +970,20 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -839,16 +994,22 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
@@ -859,16 +1020,22 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
@@ -879,13 +1046,20 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
@@ -896,16 +1070,20 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -916,16 +1094,22 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
@@ -936,16 +1120,22 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
@@ -956,16 +1146,22 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
@@ -976,16 +1172,22 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
@@ -996,16 +1198,22 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
@@ -1016,16 +1224,22 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
@@ -1036,16 +1250,22 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
@@ -1056,16 +1276,22 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
@@ -1076,16 +1302,22 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
@@ -1096,16 +1328,22 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
@@ -1116,16 +1354,22 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
@@ -1136,13 +1380,20 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>30</v>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
@@ -1153,16 +1404,20 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+      <c r="I34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D35" s="1">
         <v>33</v>
@@ -1173,16 +1428,22 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D36" s="1">
         <v>34</v>
@@ -1193,13 +1454,20 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>33</v>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D37" s="1">
         <v>35</v>
@@ -1210,13 +1478,20 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="2"/>
+      <c r="I37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>34</v>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D38" s="1">
         <v>36</v>
@@ -1227,16 +1502,22 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>35</v>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D39" s="1">
         <v>37</v>
@@ -1246,6 +1527,12 @@
       </c>
       <c r="F39" s="1">
         <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
